--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/S-PCA/stress_results_S-PCA.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/S-PCA/stress_results_S-PCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5152,6 +5152,650 @@
         <v>0.0370076689095313</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:06</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>30</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.2181525160943794</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:08</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>40</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.1770474220080296</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:12</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.3687429832204173</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:17</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>30</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.216860808076717</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:17</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>10</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.3663133674668461</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:19</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>10</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.3663292266055626</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:20</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>40</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.1816254702245944</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:20</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>10</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.3647653896434879</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:20</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.2776621958449362</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:21</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.2748046669632554</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:21</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.278008186185377</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:21</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>30</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.2207366235281553</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:22</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>40</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.1825340182958585</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:22</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>40</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.1862651554593032</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:22</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>40</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.1781252847485837</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:24</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>10</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.368563903575915</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:24</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>10</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.366636673618901</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:25</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>30</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.2264740281900377</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:26</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.3676986503657903</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:27</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2711620338916789</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:27</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>40</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.1748688091151119</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:27</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>40</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1781794415245524</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:27</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>30</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.2204962227375961</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:27</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.2782320654789707</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:28</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.2748596905958181</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:28</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.2717033399253748</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:28</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>30</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.2222684071561982</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:12:28</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>30</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.2230270797175439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
